--- a/23-Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
+++ b/23-Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/AC1-new/ACs---Engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{6DB9F9BE-D092-48B4-A853-93F1E7E082FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{183A076B-B93E-44B4-9978-3520D5089FF4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{6DB9F9BE-D092-48B4-A853-93F1E7E082FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CAB547E-EC57-4824-B388-22108F91CBB4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D8E000C-107B-4EB2-A4FD-8EDD7D67F964}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -57,34 +57,16 @@
     <t>SSS-0007</t>
   </si>
   <si>
-    <t>SSS-0008</t>
-  </si>
-  <si>
-    <t>SSS-0009</t>
-  </si>
-  <si>
     <t>Características</t>
   </si>
   <si>
-    <t>Cadastro de usuários</t>
-  </si>
-  <si>
-    <t>Autenticação de usuário</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Edição de dados</t>
-  </si>
-  <si>
-    <t>Listagem de agendamentos</t>
-  </si>
-  <si>
-    <t>Cadastro de serviços</t>
-  </si>
-  <si>
-    <t>Deslogar do sistema</t>
+    <t xml:space="preserve">Cadastro de agendamento </t>
+  </si>
+  <si>
+    <t>Cadastro de clientes</t>
   </si>
 </sst>
 </file>
@@ -201,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,6 +198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,15 +212,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,22 +235,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523048</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104090</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256345</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>94726</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5E7B35-5638-4B99-9AEB-59D0254C6F01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E79B75C-B646-4BA7-A629-9CB1464C7381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -287,8 +266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="76200"/>
-          <a:ext cx="6619048" cy="5476190"/>
+          <a:off x="323850" y="400050"/>
+          <a:ext cx="6638095" cy="4190476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,25 +576,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D3283D-1948-4864-A608-BBB89D1CFA68}">
-  <dimension ref="N3:AB17"/>
+  <dimension ref="N3:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="14:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="14:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="8"/>
+      <c r="O3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="2" t="s">
         <v>1</v>
       </c>
@@ -637,171 +616,67 @@
       <c r="Z3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="14:26" x14ac:dyDescent="0.25">
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
+      <c r="O4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="14:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="14:26" x14ac:dyDescent="0.25">
       <c r="N5" s="4">
         <v>2</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="X5" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N6" s="4">
-        <v>3</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N7" s="4">
-        <v>4</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="5"/>
-    </row>
-    <row r="8" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="14:28" x14ac:dyDescent="0.25">
-      <c r="N9" s="4">
-        <v>6</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="O9:S9"/>
+  <mergeCells count="3">
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="O5:S5"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="O7:S7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/23-Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
+++ b/23-Matriz de Rastreabilidade (Características x SSS incompleto).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24d7ff5522ff08d3/Área de Trabalho/Faculdade/3º Semestre/Engenharia de Requistos/AC1-new/ACs---Engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6DB9F9BE-D092-48B4-A853-93F1E7E082FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8CAB547E-EC57-4824-B388-22108F91CBB4}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{6DB9F9BE-D092-48B4-A853-93F1E7E082FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F596F380-585A-40D8-838A-5D0D93346A1E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0D8E000C-107B-4EB2-A4FD-8EDD7D67F964}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -63,10 +63,112 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">Cadastro de agendamento </t>
-  </si>
-  <si>
-    <t>Cadastro de clientes</t>
+    <t>Registro de Serviço</t>
+  </si>
+  <si>
+    <t>Inserir Serviços Adicionais</t>
+  </si>
+  <si>
+    <t>Inserir Novo Procedimento Estético</t>
+  </si>
+  <si>
+    <t>Atualização Cadastral</t>
+  </si>
+  <si>
+    <t>Envio de lembrete de agendamento</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Sugestão</t>
+  </si>
+  <si>
+    <t>Provedor de cartão</t>
+  </si>
+  <si>
+    <t>Via de pagamento</t>
+  </si>
+  <si>
+    <t>Agendamento</t>
+  </si>
+  <si>
+    <t>Horário de Funcionamento</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Contato</t>
+  </si>
+  <si>
+    <t>Visualizar Serviços</t>
+  </si>
+  <si>
+    <t>Visualizar preço de serviço</t>
+  </si>
+  <si>
+    <t>acompanhamento de cliente</t>
+  </si>
+  <si>
+    <t>calendário de folga</t>
+  </si>
+  <si>
+    <t>central de ajuda</t>
+  </si>
+  <si>
+    <t>cupom de desconto</t>
+  </si>
+  <si>
+    <t>promoções do dia</t>
+  </si>
+  <si>
+    <t>Pesquisa de funcionalidade</t>
+  </si>
+  <si>
+    <t>configurações da plataforma</t>
+  </si>
+  <si>
+    <t>Inserir funcionário</t>
+  </si>
+  <si>
+    <t>Visualizar Funcionários</t>
+  </si>
+  <si>
+    <t>Notificações</t>
+  </si>
+  <si>
+    <t>SSS-0008</t>
+  </si>
+  <si>
+    <t>SSS-0009</t>
+  </si>
+  <si>
+    <t>SSS-0010</t>
+  </si>
+  <si>
+    <t>SSS-0011</t>
+  </si>
+  <si>
+    <t>SSS-0012</t>
+  </si>
+  <si>
+    <t>SSS-0013</t>
+  </si>
+  <si>
+    <t>SSS-0014</t>
+  </si>
+  <si>
+    <t>SSS-0015</t>
+  </si>
+  <si>
+    <t>SSS-0016</t>
+  </si>
+  <si>
+    <t>SSS-0017</t>
+  </si>
+  <si>
+    <t>SSS-0018</t>
   </si>
 </sst>
 </file>
@@ -110,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -170,15 +272,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="8" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -191,18 +284,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,22 +330,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>256345</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>94726</xdr:rowOff>
+      <xdr:colOff>365052</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E79B75C-B646-4BA7-A629-9CB1464C7381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D076E10A-8948-4CA5-97F9-30AC56F68D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -266,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="400050"/>
-          <a:ext cx="6638095" cy="4190476"/>
+          <a:off x="459441" y="347382"/>
+          <a:ext cx="6561905" cy="7371428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -576,25 +671,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D3283D-1948-4864-A608-BBB89D1CFA68}">
-  <dimension ref="N3:Z17"/>
+  <dimension ref="N3:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="14:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="14:37" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="10"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="2" t="s">
         <v>1</v>
       </c>
@@ -616,67 +711,842 @@
       <c r="Z3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="14:26" x14ac:dyDescent="0.25">
-      <c r="N4" s="4">
+      <c r="AA3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N4" s="3">
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="5" t="s">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+    </row>
+    <row r="5" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+    </row>
+    <row r="6" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="8" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N8" s="3">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+    </row>
+    <row r="9" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <v>6</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+    </row>
+    <row r="10" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N10" s="3">
+        <v>7</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5" t="s">
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+    </row>
+    <row r="11" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <v>8</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="14:26" x14ac:dyDescent="0.25">
-      <c r="N5" s="4">
-        <v>2</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <v>9</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>10</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
         <v>11</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="s">
+      <c r="O14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+    </row>
+    <row r="15" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <v>12</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+    </row>
+    <row r="16" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>13</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+    </row>
+    <row r="17" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>14</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R17" s="3"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+    </row>
+    <row r="18" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N18" s="3">
+        <v>15</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+    </row>
+    <row r="19" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N19" s="3">
+        <v>16</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+    </row>
+    <row r="20" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N20" s="3">
+        <v>17</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+    </row>
+    <row r="21" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N21" s="3">
+        <v>18</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+    </row>
+    <row r="22" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <v>19</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+    </row>
+    <row r="23" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N23" s="3">
+        <v>20</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+    </row>
+    <row r="24" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N24" s="3">
+        <v>21</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+    </row>
+    <row r="25" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N25" s="3">
+        <v>22</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+    </row>
+    <row r="26" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N26" s="3">
+        <v>23</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+    </row>
+    <row r="27" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N27" s="3">
+        <v>24</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+    </row>
+    <row r="28" spans="14:37" x14ac:dyDescent="0.25">
+      <c r="N28" s="3">
+        <v>25</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="26">
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="O12:S12"/>
     <mergeCell ref="O3:S3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="O5:S5"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="O7:S7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
